--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557572.9302353555</v>
+        <v>-558237.7113167743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480304</v>
+        <v>362195.2019480302</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>98.93990648501779</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
         <v>98.93990648501779</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.199089505627</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312412</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.05838072575466</v>
+        <v>22.05838072575468</v>
       </c>
       <c r="U11" t="n">
-        <v>38.19558671312476</v>
+        <v>24.88879940062179</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>86.9373854613663</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,64 +1458,64 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>51.87880489469028</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.063707710285861</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14.58962378130643</v>
+      </c>
+      <c r="U12" t="n">
+        <v>36.87179703458434</v>
+      </c>
+      <c r="V12" t="n">
+        <v>40.29306373012031</v>
+      </c>
+      <c r="W12" t="n">
+        <v>66.34872639172966</v>
+      </c>
+      <c r="X12" t="n">
+        <v>68.98035905932231</v>
+      </c>
+      <c r="Y12" t="n">
         <v>98.93990648501779</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>14.5896237813064</v>
-      </c>
-      <c r="U12" t="n">
-        <v>36.87179703458431</v>
-      </c>
-      <c r="V12" t="n">
-        <v>40.29306373012028</v>
-      </c>
-      <c r="W12" t="n">
-        <v>66.34872639172963</v>
-      </c>
-      <c r="X12" t="n">
-        <v>16.95705725418864</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>23.02842894874365</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.836158859791146</v>
+        <v>2.836158859791174</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440336</v>
+        <v>34.98996300440339</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542041</v>
+        <v>23.38309022542044</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171401</v>
+        <v>88.30041113171404</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916794</v>
+        <v>44.75315799916797</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405336</v>
+        <v>89.95484990405339</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296056</v>
+        <v>21.56359822296059</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888645</v>
+        <v>16.78541562888648</v>
       </c>
     </row>
     <row r="14">
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>96.93640369251553</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>65.08788890624891</v>
       </c>
       <c r="G14" t="n">
         <v>98.93990648501779</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>22.05838072575469</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>98.93990648501779</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40.19908950562697</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>26.89230219312412</v>
-      </c>
-      <c r="T14" t="n">
-        <v>22.05838072575466</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>34.02174549315194</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36.87179703458434</v>
+      </c>
+      <c r="V15" t="n">
+        <v>40.29306373012031</v>
+      </c>
+      <c r="W15" t="n">
         <v>98.93990648501779</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>95.46330153238679</v>
-      </c>
-      <c r="U15" t="n">
-        <v>36.87179703458431</v>
-      </c>
-      <c r="V15" t="n">
-        <v>40.29306373012028</v>
-      </c>
-      <c r="W15" t="n">
-        <v>66.34872639172963</v>
-      </c>
       <c r="X15" t="n">
-        <v>16.95705725418864</v>
+        <v>16.95705725418867</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874365</v>
+        <v>98.93990648501779</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791146</v>
+        <v>2.836158859791174</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440336</v>
+        <v>34.98996300440339</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542041</v>
+        <v>23.38309022542044</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171401</v>
+        <v>88.30041113171404</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916794</v>
+        <v>44.75315799916797</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405336</v>
+        <v>89.95484990405339</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296056</v>
+        <v>21.56359822296059</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888645</v>
+        <v>16.78541562888648</v>
       </c>
     </row>
     <row r="17">
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="J18" t="n">
         <v>51.87880489469028</v>
@@ -1968,13 +1968,13 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>29.20375702702744</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.24036351260003</v>
+        <v>44.24036351260014</v>
       </c>
       <c r="C20" t="n">
-        <v>20.35862051594552</v>
+        <v>20.35862051594563</v>
       </c>
       <c r="D20" t="n">
-        <v>7.925282776993981</v>
+        <v>7.925282776994095</v>
       </c>
       <c r="E20" t="n">
-        <v>41.63203519640285</v>
+        <v>41.63203519640297</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478018</v>
+        <v>73.35237277478029</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282757</v>
+        <v>88.97949861282768</v>
       </c>
       <c r="H20" t="n">
-        <v>17.05370075428357</v>
+        <v>17.05370075428368</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.049586960533588</v>
+        <v>8.049586960533702</v>
       </c>
       <c r="X20" t="n">
-        <v>29.93583742947283</v>
+        <v>29.93583742947294</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.43869055321659</v>
+        <v>52.4386905532167</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>98.93990648501779</v>
-      </c>
-      <c r="D21" t="n">
-        <v>29.20375702702744</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>51.87880489469028</v>
@@ -2205,13 +2205,13 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>29.20375702702744</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.24036351260003</v>
+        <v>44.24036351260014</v>
       </c>
       <c r="C23" t="n">
-        <v>20.35862051594552</v>
+        <v>20.35862051594563</v>
       </c>
       <c r="D23" t="n">
-        <v>7.925282776993981</v>
+        <v>7.925282776994095</v>
       </c>
       <c r="E23" t="n">
-        <v>41.63203519640285</v>
+        <v>41.63203519640297</v>
       </c>
       <c r="F23" t="n">
-        <v>73.35237277478018</v>
+        <v>73.35237277478029</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282757</v>
+        <v>88.97949861282768</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428357</v>
+        <v>17.05370075428368</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.049586960533588</v>
+        <v>8.049586960533702</v>
       </c>
       <c r="X23" t="n">
-        <v>29.93583742947283</v>
+        <v>29.93583742947294</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.43869055321659</v>
+        <v>52.4386905532167</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.93990648501762</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>35.26746473731322</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>29.20375702702765</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>98.93990648501762</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>98.93990648501762</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>98.93990648501801</v>
       </c>
     </row>
     <row r="25">
@@ -2573,7 +2573,7 @@
         <v>134.0398632739033</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529538</v>
+        <v>27.6942323452954</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279252</v>
+        <v>14.38744503279255</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423058</v>
+        <v>9.553523565423086</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826917</v>
+        <v>37.2888833482692</v>
       </c>
       <c r="V26" t="n">
         <v>108.0190692635385</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0357494801533</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
         <v>146.9219999490926</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4248530728363</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>2.084766620974805</v>
+        <v>2.084766620974833</v>
       </c>
       <c r="U27" t="n">
-        <v>24.36693987425271</v>
+        <v>183.1398917203302</v>
       </c>
       <c r="V27" t="n">
-        <v>27.78820656978868</v>
+        <v>27.78820656978871</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139803</v>
+        <v>53.84386923139806</v>
       </c>
       <c r="X27" t="n">
-        <v>144.4504491586162</v>
+        <v>4.452200093857073</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841206</v>
+        <v>10.52357178841208</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407176</v>
+        <v>22.48510584407179</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508881</v>
+        <v>10.87823306508884</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138242</v>
+        <v>75.79555397138245</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883634</v>
+        <v>32.24830083883637</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372177</v>
+        <v>77.44999274372179</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062628968</v>
+        <v>9.058741062628997</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554858</v>
+        <v>4.280558468554887</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529538</v>
+        <v>27.6942323452954</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279252</v>
+        <v>14.38744503279255</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423058</v>
+        <v>9.553523565423086</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826917</v>
+        <v>37.2888833482692</v>
       </c>
       <c r="V29" t="n">
         <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0357494801533</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X29" t="n">
         <v>146.9219999490926</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4248530728363</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>2.084766620974805</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U30" t="n">
-        <v>24.36693987425271</v>
+        <v>24.36693987425274</v>
       </c>
       <c r="V30" t="n">
-        <v>27.78820656978868</v>
+        <v>27.78820656978871</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139803</v>
+        <v>177.1080257350548</v>
       </c>
       <c r="X30" t="n">
-        <v>4.452200093857044</v>
+        <v>4.452200093857073</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.86656408995</v>
+        <v>10.52357178841208</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407176</v>
+        <v>22.48510584407179</v>
       </c>
       <c r="T31" t="n">
-        <v>10.87823306508881</v>
+        <v>10.87823306508884</v>
       </c>
       <c r="U31" t="n">
-        <v>75.79555397138242</v>
+        <v>75.79555397138245</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883634</v>
+        <v>32.24830083883637</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372177</v>
+        <v>77.44999274372179</v>
       </c>
       <c r="X31" t="n">
-        <v>9.058741062628968</v>
+        <v>9.058741062628997</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468554858</v>
+        <v>4.280558468554887</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2265260322198</v>
+        <v>161.2265260322199</v>
       </c>
       <c r="C32" t="n">
         <v>137.3447830355653</v>
@@ -3035,7 +3035,7 @@
         <v>124.9114452966138</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6181977160226</v>
+        <v>158.6181977160227</v>
       </c>
       <c r="F32" t="n">
         <v>190.3385352944</v>
@@ -3044,10 +3044,10 @@
         <v>205.9656611324474</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0398632739033</v>
+        <v>134.0398632739034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529543</v>
+        <v>27.69423234529546</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279258</v>
+        <v>14.38744503279261</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423115</v>
+        <v>9.553523565423149</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826922</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V32" t="n">
         <v>108.0190692635385</v>
@@ -3092,7 +3092,7 @@
         <v>125.0357494801534</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9219999490926</v>
+        <v>146.9219999490927</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4248530728364</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>144.9211716226249</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.084766620974862</v>
+        <v>2.08476662097489</v>
       </c>
       <c r="U33" t="n">
-        <v>24.36693987425277</v>
+        <v>233.3900088419572</v>
       </c>
       <c r="V33" t="n">
-        <v>27.78820656978874</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.84386923139809</v>
+        <v>53.84386923139812</v>
       </c>
       <c r="X33" t="n">
-        <v>4.452200093857101</v>
+        <v>4.45220009385713</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841211</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407182</v>
+        <v>22.48510584407185</v>
       </c>
       <c r="T34" t="n">
-        <v>10.87823306508887</v>
+        <v>10.8782330650889</v>
       </c>
       <c r="U34" t="n">
-        <v>75.79555397138247</v>
+        <v>75.7955539713825</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2483008388364</v>
+        <v>32.24830083883643</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372182</v>
+        <v>77.44999274372185</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629025</v>
+        <v>9.058741062629053</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468554915</v>
+        <v>4.280558468554943</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E35" t="n">
         <v>130.9239653707272</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973769</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X35" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>21.00255350088947</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.0637077102859</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2.434132496149719</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>26.14963688610266</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.21896316634665</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>26.02659305585237</v>
       </c>
       <c r="V39" t="n">
         <v>0.09397422449328019</v>
       </c>
       <c r="W39" t="n">
-        <v>26.14963688610263</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973768</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="42">
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>58.97700257117044</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3882,10 +3882,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>33.1376329057307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973768</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.9571958617186</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276542198663</v>
+        <v>11.9487015431392</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09397422449330861</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>26.14963688610263</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.8544919986174</v>
+        <v>248.3989323932082</v>
       </c>
       <c r="C11" t="n">
-        <v>107.8544919986174</v>
+        <v>248.3989323932082</v>
       </c>
       <c r="D11" t="n">
-        <v>7.915192518801423</v>
+        <v>248.3989323932082</v>
       </c>
       <c r="E11" t="n">
-        <v>7.915192518801423</v>
+        <v>248.3989323932082</v>
       </c>
       <c r="F11" t="n">
-        <v>7.915192518801423</v>
+        <v>248.3989323932082</v>
       </c>
       <c r="G11" t="n">
-        <v>7.915192518801423</v>
+        <v>148.4596329133923</v>
       </c>
       <c r="H11" t="n">
-        <v>7.915192518801423</v>
+        <v>48.52033343357633</v>
       </c>
       <c r="I11" t="n">
         <v>7.915192518801423</v>
       </c>
       <c r="J11" t="n">
-        <v>46.57881336757697</v>
+        <v>105.865699938969</v>
       </c>
       <c r="K11" t="n">
-        <v>144.5293207877446</v>
+        <v>150.68255247645</v>
       </c>
       <c r="L11" t="n">
-        <v>193.0932775020867</v>
+        <v>199.2465091907921</v>
       </c>
       <c r="M11" t="n">
-        <v>276.0059963039869</v>
+        <v>282.1592279926924</v>
       </c>
       <c r="N11" t="n">
-        <v>353.4178935616862</v>
+        <v>359.5711252503917</v>
       </c>
       <c r="O11" t="n">
-        <v>389.6063942513657</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="P11" t="n">
-        <v>389.6063942513657</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513657</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="R11" t="n">
         <v>395.7596259400711</v>
       </c>
       <c r="S11" t="n">
-        <v>368.5956843308549</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="T11" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877937</v>
       </c>
       <c r="U11" t="n">
-        <v>307.7330909582492</v>
+        <v>348.3382318730242</v>
       </c>
       <c r="V11" t="n">
-        <v>307.7330909582492</v>
+        <v>348.3382318730242</v>
       </c>
       <c r="W11" t="n">
-        <v>307.7330909582492</v>
+        <v>348.3382318730242</v>
       </c>
       <c r="X11" t="n">
-        <v>307.7330909582492</v>
+        <v>248.3989323932082</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.7937914784333</v>
+        <v>248.3989323932082</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.6700328686844</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="C12" t="n">
-        <v>107.8544919986174</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8544919986174</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="E12" t="n">
-        <v>107.8544919986174</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="J12" t="n">
         <v>7.915192518801423</v>
       </c>
       <c r="K12" t="n">
-        <v>7.915192518801423</v>
+        <v>46.88760930735561</v>
       </c>
       <c r="L12" t="n">
-        <v>17.08968857556377</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0401959957314</v>
+        <v>144.8381167275232</v>
       </c>
       <c r="N12" t="n">
-        <v>212.990703415899</v>
+        <v>242.7886241476908</v>
       </c>
       <c r="O12" t="n">
         <v>310.9412108360666</v>
@@ -5139,31 +5139,31 @@
         <v>395.7596259400711</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.7596259400711</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="R12" t="n">
-        <v>395.7596259400711</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="S12" t="n">
-        <v>395.7596259400711</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="T12" t="n">
-        <v>381.0226322215798</v>
+        <v>374.8976749384627</v>
       </c>
       <c r="U12" t="n">
-        <v>343.7783927927068</v>
+        <v>337.6534355095897</v>
       </c>
       <c r="V12" t="n">
-        <v>303.0783284188479</v>
+        <v>296.9533711357308</v>
       </c>
       <c r="W12" t="n">
-        <v>236.0594128716463</v>
+        <v>229.9344555885291</v>
       </c>
       <c r="X12" t="n">
-        <v>218.9310722108497</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="Y12" t="n">
-        <v>195.6700328686844</v>
+        <v>60.3180257457613</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.42673967391216</v>
+        <v>30.42673967391213</v>
       </c>
       <c r="C13" t="n">
-        <v>30.42673967391216</v>
+        <v>63.98642912508862</v>
       </c>
       <c r="D13" t="n">
-        <v>30.42673967391216</v>
+        <v>118.6079039903141</v>
       </c>
       <c r="E13" t="n">
-        <v>30.42673967391216</v>
+        <v>176.7008228036405</v>
       </c>
       <c r="F13" t="n">
-        <v>30.42673967391216</v>
+        <v>237.5155080208074</v>
       </c>
       <c r="G13" t="n">
-        <v>30.42673967391216</v>
+        <v>237.5155080208074</v>
       </c>
       <c r="H13" t="n">
-        <v>30.42673967391216</v>
+        <v>237.5155080208074</v>
       </c>
       <c r="I13" t="n">
-        <v>30.42673967391216</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="J13" t="n">
-        <v>30.42673967391216</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="K13" t="n">
-        <v>30.42673967391216</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="L13" t="n">
-        <v>30.42673967391216</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="M13" t="n">
-        <v>128.3772470940798</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="N13" t="n">
-        <v>226.3277545142474</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="O13" t="n">
-        <v>226.3277545142474</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="P13" t="n">
-        <v>324.278261934415</v>
+        <v>260.8939069396878</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343542</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="R13" t="n">
-        <v>330.8752795052722</v>
+        <v>330.8752795052725</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311274</v>
+        <v>295.5318825311276</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751472</v>
+        <v>271.9125994751474</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986684</v>
+        <v>182.7202649986685</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984988</v>
+        <v>137.5150548984989</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692973</v>
+        <v>46.65157014692979</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050491</v>
+        <v>24.87015780050494</v>
       </c>
       <c r="Y13" t="n">
         <v>7.915192518801423</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>346.3144916785773</v>
+        <v>173.5998343281617</v>
       </c>
       <c r="C14" t="n">
-        <v>346.3144916785773</v>
+        <v>173.5998343281617</v>
       </c>
       <c r="D14" t="n">
-        <v>248.3989323932081</v>
+        <v>173.5998343281617</v>
       </c>
       <c r="E14" t="n">
-        <v>248.3989323932081</v>
+        <v>173.5998343281617</v>
       </c>
       <c r="F14" t="n">
-        <v>248.3989323932081</v>
+        <v>107.8544919986174</v>
       </c>
       <c r="G14" t="n">
-        <v>148.4596329133921</v>
+        <v>7.915192518801423</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357615</v>
+        <v>7.915192518801423</v>
       </c>
       <c r="I14" t="n">
         <v>7.915192518801423</v>
@@ -5279,49 +5279,49 @@
         <v>7.915192518801423</v>
       </c>
       <c r="K14" t="n">
-        <v>7.915192518801423</v>
+        <v>105.865699938969</v>
       </c>
       <c r="L14" t="n">
-        <v>56.4791492331435</v>
+        <v>154.4296566533111</v>
       </c>
       <c r="M14" t="n">
-        <v>139.3918680350438</v>
+        <v>237.3423754552114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.8037652927431</v>
+        <v>314.7542727129107</v>
       </c>
       <c r="O14" t="n">
-        <v>252.9922659824226</v>
+        <v>350.9427734025902</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8091185199036</v>
+        <v>389.6063942513657</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400711</v>
+        <v>389.6063942513657</v>
       </c>
       <c r="R14" t="n">
         <v>395.7596259400711</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308549</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="T14" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877937</v>
       </c>
       <c r="U14" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877937</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877937</v>
       </c>
       <c r="W14" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877937</v>
       </c>
       <c r="X14" t="n">
-        <v>346.3144916785773</v>
+        <v>373.4784332877937</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.3144916785773</v>
+        <v>273.5391338079777</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="C15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="D15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="E15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="F15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="G15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
       <c r="J15" t="n">
         <v>7.915192518801423</v>
@@ -5367,7 +5367,7 @@
         <v>212.990703415899</v>
       </c>
       <c r="N15" t="n">
-        <v>212.990703415899</v>
+        <v>310.9412108360666</v>
       </c>
       <c r="O15" t="n">
         <v>310.9412108360666</v>
@@ -5379,28 +5379,28 @@
         <v>389.6346686569541</v>
       </c>
       <c r="R15" t="n">
-        <v>289.6953691771381</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="S15" t="n">
-        <v>289.6953691771381</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="T15" t="n">
-        <v>193.2677918716969</v>
+        <v>355.2692691689218</v>
       </c>
       <c r="U15" t="n">
-        <v>156.0235524428238</v>
+        <v>318.0250297400488</v>
       </c>
       <c r="V15" t="n">
-        <v>115.323488068965</v>
+        <v>277.3249653661899</v>
       </c>
       <c r="W15" t="n">
-        <v>48.30457252176333</v>
+        <v>177.3856658863739</v>
       </c>
       <c r="X15" t="n">
-        <v>31.17623186096673</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.915192518801423</v>
+        <v>60.3180257457613</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>7.915192518801423</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801423</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="D16" t="n">
-        <v>7.915192518801423</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="E16" t="n">
-        <v>7.915192518801423</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="F16" t="n">
-        <v>7.915192518801423</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="G16" t="n">
-        <v>39.25896298033832</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="H16" t="n">
-        <v>73.49168761943795</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="I16" t="n">
-        <v>108.7970996453145</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="J16" t="n">
-        <v>188.4825858890646</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="K16" t="n">
-        <v>235.7895790141866</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="L16" t="n">
-        <v>235.7895790141866</v>
+        <v>41.47488196997791</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7895790141866</v>
+        <v>139.4253893901455</v>
       </c>
       <c r="N16" t="n">
-        <v>235.7895790141866</v>
+        <v>139.4253893901455</v>
       </c>
       <c r="O16" t="n">
-        <v>235.7895790141866</v>
+        <v>237.3758968103132</v>
       </c>
       <c r="P16" t="n">
-        <v>333.7400864343542</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343542</v>
+        <v>333.7400864343545</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052722</v>
+        <v>330.8752795052725</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311274</v>
+        <v>295.5318825311276</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751472</v>
+        <v>271.9125994751474</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986684</v>
+        <v>182.7202649986685</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984988</v>
+        <v>137.5150548984989</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692973</v>
+        <v>46.65157014692979</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050491</v>
+        <v>24.87015780050494</v>
       </c>
       <c r="Y16" t="n">
         <v>7.915192518801423</v>
@@ -5492,16 +5492,16 @@
         <v>259.7349002271188</v>
       </c>
       <c r="C17" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796991</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413212</v>
+        <v>231.1653009413214</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368737</v>
+        <v>189.112740136874</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037624</v>
+        <v>115.0194343037627</v>
       </c>
       <c r="G17" t="n">
         <v>25.14115287666361</v>
@@ -5537,16 +5537,16 @@
         <v>252.9922659824226</v>
       </c>
       <c r="R17" t="n">
-        <v>252.9922659824226</v>
+        <v>297.8091185199036</v>
       </c>
       <c r="S17" t="n">
-        <v>252.9922659824226</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="T17" t="n">
-        <v>350.9427734025902</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165507</v>
+        <v>395.7596259400711</v>
       </c>
       <c r="V17" t="n">
         <v>395.7596259400711</v>
@@ -5555,10 +5555,10 @@
         <v>387.6287300203403</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946104</v>
+        <v>357.3905103946102</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984318</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.3180257457613</v>
+        <v>360.1359241852092</v>
       </c>
       <c r="C18" t="n">
-        <v>60.3180257457613</v>
+        <v>360.1359241852092</v>
       </c>
       <c r="D18" t="n">
-        <v>60.3180257457613</v>
+        <v>360.1359241852092</v>
       </c>
       <c r="E18" t="n">
-        <v>60.3180257457613</v>
+        <v>360.1359241852092</v>
       </c>
       <c r="F18" t="n">
-        <v>60.3180257457613</v>
+        <v>260.1966247053932</v>
       </c>
       <c r="G18" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="H18" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="I18" t="n">
         <v>60.3180257457613</v>
@@ -5598,13 +5598,13 @@
         <v>46.88760930735561</v>
       </c>
       <c r="L18" t="n">
+        <v>46.88760930735561</v>
+      </c>
+      <c r="M18" t="n">
         <v>144.8381167275232</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>242.7886241476908</v>
-      </c>
-      <c r="N18" t="n">
-        <v>310.9412108360666</v>
       </c>
       <c r="O18" t="n">
         <v>310.9412108360666</v>
@@ -5616,28 +5616,28 @@
         <v>389.6346686569541</v>
       </c>
       <c r="R18" t="n">
-        <v>289.6953691771381</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="S18" t="n">
-        <v>189.7560696973221</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="T18" t="n">
-        <v>89.81677021750619</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="U18" t="n">
-        <v>89.81677021750619</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="V18" t="n">
-        <v>89.81677021750619</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="W18" t="n">
-        <v>89.81677021750619</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="X18" t="n">
-        <v>60.3180257457613</v>
+        <v>389.6346686569541</v>
       </c>
       <c r="Y18" t="n">
-        <v>60.3180257457613</v>
+        <v>360.1359241852092</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.734900227118</v>
+        <v>259.7349002271185</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796983</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413208</v>
+        <v>231.1653009413209</v>
       </c>
       <c r="E20" t="n">
         <v>189.1127401368735</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037624</v>
+        <v>115.0194343037621</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666361</v>
+        <v>25.14115287666373</v>
       </c>
       <c r="H20" t="n">
         <v>7.915192518801423</v>
@@ -5774,28 +5774,28 @@
         <v>252.9922659824226</v>
       </c>
       <c r="R20" t="n">
-        <v>252.9922659824226</v>
+        <v>307.9818972369138</v>
       </c>
       <c r="S20" t="n">
-        <v>350.9427734025902</v>
+        <v>307.9818972369138</v>
       </c>
       <c r="T20" t="n">
-        <v>386.8822036165507</v>
+        <v>307.9818972369138</v>
       </c>
       <c r="U20" t="n">
-        <v>386.8822036165507</v>
+        <v>386.8822036165508</v>
       </c>
       <c r="V20" t="n">
         <v>395.7596259400711</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203398</v>
+        <v>387.6287300203404</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946097</v>
+        <v>357.3905103946103</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984311</v>
+        <v>304.4221360984318</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.7560696973221</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="C21" t="n">
-        <v>89.81677021750619</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="D21" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="E21" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="F21" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="G21" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="H21" t="n">
-        <v>60.3180257457613</v>
+        <v>160.2573252255773</v>
       </c>
       <c r="I21" t="n">
         <v>60.3180257457613</v>
@@ -5835,16 +5835,16 @@
         <v>46.88760930735561</v>
       </c>
       <c r="L21" t="n">
+        <v>46.88760930735561</v>
+      </c>
+      <c r="M21" t="n">
         <v>144.8381167275232</v>
       </c>
-      <c r="M21" t="n">
-        <v>212.990703415899</v>
-      </c>
       <c r="N21" t="n">
-        <v>212.990703415899</v>
+        <v>242.7886241476908</v>
       </c>
       <c r="O21" t="n">
-        <v>310.9412108360666</v>
+        <v>340.7391315678584</v>
       </c>
       <c r="P21" t="n">
         <v>395.7596259400711</v>
@@ -5853,28 +5853,28 @@
         <v>389.6346686569541</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569541</v>
+        <v>289.6953691771381</v>
       </c>
       <c r="S21" t="n">
-        <v>389.6346686569541</v>
+        <v>289.6953691771381</v>
       </c>
       <c r="T21" t="n">
-        <v>389.6346686569541</v>
+        <v>260.1966247053932</v>
       </c>
       <c r="U21" t="n">
-        <v>389.6346686569541</v>
+        <v>260.1966247053932</v>
       </c>
       <c r="V21" t="n">
-        <v>389.6346686569541</v>
+        <v>260.1966247053932</v>
       </c>
       <c r="W21" t="n">
-        <v>389.6346686569541</v>
+        <v>260.1966247053932</v>
       </c>
       <c r="X21" t="n">
-        <v>289.6953691771381</v>
+        <v>260.1966247053932</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.7560696973221</v>
+        <v>260.1966247053932</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271183</v>
+        <v>259.7349002271192</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796985</v>
+        <v>239.1706370796994</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413208</v>
+        <v>231.1653009413216</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368735</v>
+        <v>189.1127401368742</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037622</v>
+        <v>115.0194343037628</v>
       </c>
       <c r="G23" t="n">
-        <v>25.1411528766636</v>
+        <v>25.14115287666375</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I23" t="n">
-        <v>96.31420339138252</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J23" t="n">
-        <v>150.6825524764493</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K23" t="n">
-        <v>150.6825524764493</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L23" t="n">
-        <v>199.2465091907914</v>
+        <v>56.47914923314352</v>
       </c>
       <c r="M23" t="n">
-        <v>282.1592279926917</v>
+        <v>139.3918680350438</v>
       </c>
       <c r="N23" t="n">
-        <v>359.571125250391</v>
+        <v>216.8037652927431</v>
       </c>
       <c r="O23" t="n">
-        <v>395.7596259400705</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="P23" t="n">
-        <v>395.7596259400705</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="Q23" t="n">
-        <v>395.7596259400705</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="R23" t="n">
-        <v>395.7596259400705</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="S23" t="n">
-        <v>395.7596259400705</v>
+        <v>252.9922659824226</v>
       </c>
       <c r="T23" t="n">
-        <v>395.7596259400705</v>
+        <v>316.8593195604351</v>
       </c>
       <c r="U23" t="n">
-        <v>395.7596259400705</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400705</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203398</v>
+        <v>387.6287300203412</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946098</v>
+        <v>357.3905103946109</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984315</v>
+        <v>304.4221360984324</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.94172750062313</v>
+        <v>189.7560696973226</v>
       </c>
       <c r="C24" t="n">
-        <v>60.31802574576129</v>
+        <v>189.7560696973226</v>
       </c>
       <c r="D24" t="n">
-        <v>60.31802574576129</v>
+        <v>189.7560696973226</v>
       </c>
       <c r="E24" t="n">
-        <v>60.31802574576129</v>
+        <v>189.7560696973226</v>
       </c>
       <c r="F24" t="n">
-        <v>60.31802574576129</v>
+        <v>89.81677021750642</v>
       </c>
       <c r="G24" t="n">
-        <v>60.31802574576129</v>
+        <v>89.81677021750642</v>
       </c>
       <c r="H24" t="n">
-        <v>60.31802574576129</v>
+        <v>60.31802574576132</v>
       </c>
       <c r="I24" t="n">
-        <v>60.31802574576129</v>
+        <v>60.31802574576132</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K24" t="n">
-        <v>7.915192518801409</v>
+        <v>46.88760930735562</v>
       </c>
       <c r="L24" t="n">
-        <v>105.8656999389688</v>
+        <v>144.8381167275235</v>
       </c>
       <c r="M24" t="n">
-        <v>203.8162073591363</v>
+        <v>242.7886241476913</v>
       </c>
       <c r="N24" t="n">
-        <v>212.9907034158985</v>
+        <v>297.8091185199042</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360659</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400705</v>
+        <v>395.7596259400721</v>
       </c>
       <c r="Q24" t="n">
-        <v>395.7596259400705</v>
+        <v>389.634668656955</v>
       </c>
       <c r="R24" t="n">
-        <v>295.8203264602547</v>
+        <v>389.634668656955</v>
       </c>
       <c r="S24" t="n">
-        <v>295.8203264602547</v>
+        <v>389.634668656955</v>
       </c>
       <c r="T24" t="n">
-        <v>195.8810269804389</v>
+        <v>389.634668656955</v>
       </c>
       <c r="U24" t="n">
-        <v>195.8810269804389</v>
+        <v>389.634668656955</v>
       </c>
       <c r="V24" t="n">
-        <v>195.8810269804389</v>
+        <v>289.6953691771388</v>
       </c>
       <c r="W24" t="n">
-        <v>195.8810269804389</v>
+        <v>289.6953691771388</v>
       </c>
       <c r="X24" t="n">
-        <v>195.8810269804389</v>
+        <v>289.6953691771388</v>
       </c>
       <c r="Y24" t="n">
-        <v>195.8810269804389</v>
+        <v>189.7560696973226</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801409</v>
+        <v>7.915192518801441</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907656</v>
+        <v>886.1595461907658</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234791</v>
+        <v>759.9863691234792</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901228</v>
+        <v>599.765967390123</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281028</v>
+        <v>407.5048206281029</v>
       </c>
       <c r="G26" t="n">
         <v>199.4586982720955</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0648969853236</v>
+        <v>64.06489698532363</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8005131365272</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511675</v>
+        <v>377.3583775511678</v>
       </c>
       <c r="L26" t="n">
-        <v>636.654441467667</v>
+        <v>636.6544414676664</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717246</v>
+        <v>930.2992674717243</v>
       </c>
       <c r="N26" t="n">
         <v>1218.443271931581</v>
@@ -6242,31 +6242,31 @@
         <v>1465.363879823418</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V26" t="n">
         <v>1633.587739695682</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847043</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292404</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.746727067316</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>357.2987574410928</v>
+        <v>323.4626431404022</v>
       </c>
       <c r="C27" t="n">
-        <v>357.2987574410928</v>
+        <v>323.4626431404022</v>
       </c>
       <c r="D27" t="n">
-        <v>196.5186412021246</v>
+        <v>323.4626431404022</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5186412021246</v>
+        <v>323.4626431404022</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09092491936867</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936867</v>
+        <v>163.0349268576463</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L27" t="n">
         <v>193.7531079096929</v>
@@ -6330,25 +6330,25 @@
         <v>801.5495631391819</v>
       </c>
       <c r="S27" t="n">
-        <v>801.5495631391819</v>
+        <v>608.1419421553123</v>
       </c>
       <c r="T27" t="n">
-        <v>799.4437382695104</v>
+        <v>606.0361172856408</v>
       </c>
       <c r="U27" t="n">
-        <v>774.8306676894572</v>
+        <v>421.0463276691456</v>
       </c>
       <c r="V27" t="n">
-        <v>746.7617721644181</v>
+        <v>392.9774321441065</v>
       </c>
       <c r="W27" t="n">
-        <v>692.3740254660362</v>
+        <v>338.5896854457246</v>
       </c>
       <c r="X27" t="n">
-        <v>546.4644808613733</v>
+        <v>334.0925136337478</v>
       </c>
       <c r="Y27" t="n">
-        <v>535.8346103680278</v>
+        <v>323.4626431404022</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936867</v>
+        <v>71.21053542838635</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936867</v>
+        <v>141.683262830441</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936867</v>
+        <v>141.683262830441</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936867</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936867</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936867</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936867</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09092491936867</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09092491936867</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="M28" t="n">
-        <v>222.6795765141043</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="N28" t="n">
-        <v>222.6795765141043</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="O28" t="n">
-        <v>222.6795765141043</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6328299641009</v>
+        <v>185.4068418807062</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.6328299641009</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641009</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387759</v>
+        <v>247.9206018387761</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316155</v>
+        <v>236.9324876316156</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039565</v>
+        <v>160.3713220039566</v>
       </c>
       <c r="V28" t="n">
         <v>127.7972807526067</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985739</v>
+        <v>49.56496484985743</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225237</v>
+        <v>40.41472135225239</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907654</v>
+        <v>886.1595461907655</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234789</v>
+        <v>759.986369123479</v>
       </c>
       <c r="E29" t="n">
         <v>599.7659673901228</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281024</v>
+        <v>407.5048206281026</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720948</v>
+        <v>199.4586982720952</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0648969853236</v>
+        <v>64.06489698532361</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J29" t="n">
         <v>171.8005131365276</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511679</v>
+        <v>377.3583775511671</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676674</v>
+        <v>636.6544414676665</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717246</v>
+        <v>930.2992674717242</v>
       </c>
       <c r="N29" t="n">
         <v>1218.443271931581</v>
@@ -6479,19 +6479,19 @@
         <v>1465.363879823418</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
         <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U29" t="n">
         <v>1742.697910668953</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>370.0818450807101</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="C30" t="n">
-        <v>370.0818450807101</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="D30" t="n">
-        <v>370.0818450807101</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="E30" t="n">
-        <v>196.5186412021246</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09092491936867</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09092491936867</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09092491936867</v>
+        <v>144.3192906119247</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L30" t="n">
         <v>193.7531079096929</v>
@@ -6567,25 +6567,25 @@
         <v>801.5495631391819</v>
       </c>
       <c r="S30" t="n">
-        <v>801.5495631391819</v>
+        <v>608.1419421553123</v>
       </c>
       <c r="T30" t="n">
-        <v>799.4437382695104</v>
+        <v>391.025294714314</v>
       </c>
       <c r="U30" t="n">
-        <v>774.8306676894572</v>
+        <v>366.4122241342607</v>
       </c>
       <c r="V30" t="n">
-        <v>746.7617721644181</v>
+        <v>338.3433286092216</v>
       </c>
       <c r="W30" t="n">
-        <v>692.3740254660362</v>
+        <v>159.446332917247</v>
       </c>
       <c r="X30" t="n">
-        <v>687.8768536540593</v>
+        <v>154.9491611052702</v>
       </c>
       <c r="Y30" t="n">
-        <v>548.6176980076452</v>
+        <v>144.3192906119247</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936867</v>
+        <v>70.98228066320765</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936867</v>
+        <v>116.9217787031124</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936867</v>
+        <v>183.9230621570662</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936867</v>
+        <v>254.3957895591209</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936867</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936867</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09092491936867</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="I31" t="n">
-        <v>83.77614553397352</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="J31" t="n">
-        <v>83.77614553397352</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="K31" t="n">
-        <v>83.77614553397352</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="L31" t="n">
-        <v>83.77614553397352</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="M31" t="n">
-        <v>83.77614553397352</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="N31" t="n">
-        <v>86.69229409245972</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="O31" t="n">
-        <v>261.0608186465659</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="P31" t="n">
-        <v>261.0608186465659</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.0608186465659</v>
+        <v>261.0608186465661</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641009</v>
+        <v>270.6328299641011</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387759</v>
+        <v>247.9206018387761</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316155</v>
+        <v>236.9324876316156</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039565</v>
+        <v>160.3713220039566</v>
       </c>
       <c r="V31" t="n">
         <v>127.7972807526067</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985739</v>
+        <v>49.56496484985743</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225237</v>
+        <v>40.41472135225239</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907656</v>
+        <v>886.159546190765</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234789</v>
+        <v>759.9863691234783</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901227</v>
+        <v>599.7659673901221</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281025</v>
+        <v>407.5048206281019</v>
       </c>
       <c r="G32" t="n">
-        <v>199.458698272095</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532366</v>
+        <v>64.06489698532367</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J32" t="n">
         <v>171.8005131365275</v>
@@ -6707,22 +6707,22 @@
         <v>636.6544414676671</v>
       </c>
       <c r="M32" t="n">
-        <v>930.299267471725</v>
+        <v>930.2992674717243</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S32" t="n">
         <v>1790.013473208037</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.2469831607136</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C33" t="n">
-        <v>530.8619613196784</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D33" t="n">
-        <v>370.0818450807101</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5186412021246</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
@@ -6810,19 +6810,19 @@
         <v>799.4437382695104</v>
       </c>
       <c r="U33" t="n">
-        <v>774.8306676894571</v>
+        <v>563.6962545907658</v>
       </c>
       <c r="V33" t="n">
-        <v>746.7617721644179</v>
+        <v>320.6165364943998</v>
       </c>
       <c r="W33" t="n">
-        <v>692.3740254660361</v>
+        <v>266.2287897960179</v>
       </c>
       <c r="X33" t="n">
-        <v>687.8768536540592</v>
+        <v>261.731617984041</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.2469831607136</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C34" t="n">
-        <v>82.03042295927341</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0317064132272</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E34" t="n">
-        <v>149.0317064132272</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F34" t="n">
-        <v>149.0317064132272</v>
+        <v>47.38550898800893</v>
       </c>
       <c r="G34" t="n">
-        <v>149.0317064132272</v>
+        <v>91.10908803827402</v>
       </c>
       <c r="H34" t="n">
-        <v>149.0317064132272</v>
+        <v>137.7216212661019</v>
       </c>
       <c r="I34" t="n">
-        <v>149.0317064132272</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="J34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="K34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="M34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="N34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="O34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="P34" t="n">
-        <v>185.4068418807065</v>
+        <v>185.4068418807066</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641013</v>
+        <v>270.6328299641015</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387763</v>
+        <v>247.9206018387764</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316158</v>
+        <v>236.9324876316159</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039567</v>
+        <v>160.3713220039568</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526068</v>
+        <v>127.7972807526069</v>
       </c>
       <c r="W34" t="n">
-        <v>49.5649648498575</v>
+        <v>49.56496484985755</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225243</v>
+        <v>40.41472135225244</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866065</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762336</v>
+        <v>710.400521276233</v>
       </c>
       <c r="D35" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749015</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075007</v>
+        <v>479.9548866075004</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114354</v>
+        <v>315.6677119114352</v>
       </c>
       <c r="G35" t="n">
-        <v>135.595561621383</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I35" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J35" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395685</v>
       </c>
       <c r="K35" t="n">
-        <v>261.1508868370499</v>
+        <v>424.2777650760512</v>
       </c>
       <c r="L35" t="n">
-        <v>547.8642407753919</v>
+        <v>710.991119014393</v>
       </c>
       <c r="M35" t="n">
-        <v>868.9263568012921</v>
+        <v>793.9038378162932</v>
       </c>
       <c r="N35" t="n">
-        <v>1184.487651282991</v>
+        <v>871.3157350739924</v>
       </c>
       <c r="O35" t="n">
-        <v>1220.676151972671</v>
+        <v>956.2193626863675</v>
       </c>
       <c r="P35" t="n">
-        <v>1331.703268597635</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q35" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R35" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
@@ -6974,13 +6974,13 @@
         <v>1317.958854451375</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208736</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>764.7618762948731</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C36" t="n">
-        <v>575.3496020278368</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D36" t="n">
-        <v>414.5694857888686</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E36" t="n">
-        <v>241.006281910283</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I36" t="n">
-        <v>80.57856562752713</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J36" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K36" t="n">
-        <v>67.14814918912143</v>
+        <v>67.14814918912137</v>
       </c>
       <c r="L36" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908913</v>
       </c>
       <c r="M36" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312078</v>
       </c>
       <c r="N36" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437102</v>
       </c>
       <c r="O36" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163757</v>
       </c>
       <c r="P36" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="Q36" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372631</v>
       </c>
       <c r="R36" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372631</v>
       </c>
       <c r="S36" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372631</v>
       </c>
       <c r="T36" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372631</v>
       </c>
       <c r="U36" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372631</v>
       </c>
       <c r="V36" t="n">
-        <v>791.1756509273</v>
+        <v>544.4296952408972</v>
       </c>
       <c r="W36" t="n">
-        <v>764.7618762948731</v>
+        <v>275.0311259711885</v>
       </c>
       <c r="X36" t="n">
-        <v>764.7618762948731</v>
+        <v>275.0311259711885</v>
       </c>
       <c r="Y36" t="n">
-        <v>764.7618762948731</v>
+        <v>49.3904329065162</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C37" t="n">
-        <v>101.5325204623145</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D37" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E37" t="n">
-        <v>131.6213389844606</v>
+        <v>126.0657498244644</v>
       </c>
       <c r="F37" t="n">
-        <v>131.6213389844606</v>
+        <v>126.0657498244644</v>
       </c>
       <c r="G37" t="n">
-        <v>131.6213389844606</v>
+        <v>126.0657498244644</v>
       </c>
       <c r="H37" t="n">
-        <v>131.6213389844606</v>
+        <v>126.0657498244644</v>
       </c>
       <c r="I37" t="n">
-        <v>131.6213389844606</v>
+        <v>126.0657498244644</v>
       </c>
       <c r="J37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="K37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="L37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="M37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="O37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="P37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U37" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="38">
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866077</v>
+        <v>821.1586532866072</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762337</v>
+        <v>710.4005212762336</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749021</v>
+        <v>612.2013162749017</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075008</v>
+        <v>479.9548866075002</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6677119114356</v>
+        <v>315.667711911435</v>
       </c>
       <c r="G38" t="n">
         <v>135.5955616213833</v>
       </c>
       <c r="H38" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I38" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J38" t="n">
         <v>191.3026106395686</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2777650760514</v>
+        <v>234.8434947747466</v>
       </c>
       <c r="L38" t="n">
-        <v>710.9911190143933</v>
+        <v>283.4074514890887</v>
       </c>
       <c r="M38" t="n">
-        <v>842.6189647389892</v>
+        <v>366.3201702909889</v>
       </c>
       <c r="N38" t="n">
-        <v>920.0308619966886</v>
+        <v>681.8814647726881</v>
       </c>
       <c r="O38" t="n">
-        <v>956.2193626863681</v>
+        <v>956.2193626863674</v>
       </c>
       <c r="P38" t="n">
-        <v>1181.107235383051</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q38" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R38" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S38" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T38" t="n">
         <v>1408.786620028362</v>
       </c>
       <c r="U38" t="n">
-        <v>1399.095053358692</v>
+        <v>1399.095053358691</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W38" t="n">
         <v>1219.634089668691</v>
@@ -7217,7 +7217,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208748</v>
+        <v>956.0397580208743</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>712.3590430679133</v>
+        <v>362.1666525619087</v>
       </c>
       <c r="C39" t="n">
-        <v>522.946768800877</v>
+        <v>362.1666525619087</v>
       </c>
       <c r="D39" t="n">
         <v>362.1666525619087</v>
       </c>
       <c r="E39" t="n">
-        <v>188.6034486833232</v>
+        <v>188.6034486833231</v>
       </c>
       <c r="F39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J39" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K39" t="n">
         <v>67.14814918912143</v>
@@ -7275,28 +7275,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="R39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="S39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="T39" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259059</v>
       </c>
       <c r="U39" t="n">
-        <v>793.6343706203805</v>
+        <v>631.6601452907015</v>
       </c>
       <c r="V39" t="n">
-        <v>793.5394471612964</v>
+        <v>631.5652218316174</v>
       </c>
       <c r="W39" t="n">
-        <v>767.1256725288695</v>
+        <v>362.1666525619087</v>
       </c>
       <c r="X39" t="n">
-        <v>767.1256725288695</v>
+        <v>362.1666525619087</v>
       </c>
       <c r="Y39" t="n">
-        <v>767.1256725288695</v>
+        <v>362.1666525619087</v>
       </c>
     </row>
     <row r="40">
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="C40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="D40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="E40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="F40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="G40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="H40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="I40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="J40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="K40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="L40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="M40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="N40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="O40" t="n">
-        <v>28.17573240056725</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="P40" t="n">
-        <v>131.6213389844605</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.6213389844605</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="R40" t="n">
-        <v>131.6213389844605</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="S40" t="n">
-        <v>131.6213389844605</v>
+        <v>119.9816568321543</v>
       </c>
       <c r="T40" t="n">
         <v>131.6213389844605</v>
@@ -7369,13 +7369,13 @@
         <v>78.43407623736155</v>
       </c>
       <c r="W40" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X40" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.158653286607</v>
+        <v>821.1586532866077</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762333</v>
+        <v>710.4005212762337</v>
       </c>
       <c r="D41" t="n">
-        <v>612.2013162749017</v>
+        <v>612.2013162749021</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075006</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114353</v>
+        <v>315.6677119114356</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213832</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2777650760514</v>
+        <v>424.2777650760513</v>
       </c>
       <c r="L41" t="n">
-        <v>472.8417217903935</v>
+        <v>472.8417217903934</v>
       </c>
       <c r="M41" t="n">
-        <v>555.7544405922938</v>
+        <v>555.7544405922937</v>
       </c>
       <c r="N41" t="n">
-        <v>681.8814647726888</v>
+        <v>681.8814647726881</v>
       </c>
       <c r="O41" t="n">
-        <v>956.2193626863681</v>
+        <v>956.2193626863674</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.107235383051</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T41" t="n">
         <v>1408.786620028362</v>
@@ -7445,16 +7445,16 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.63408966869</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X41" t="n">
-        <v>1099.202001180006</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.0397580208742</v>
+        <v>956.0397580208748</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912143</v>
       </c>
       <c r="L42" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M42" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312079</v>
       </c>
       <c r="N42" t="n">
         <v>575.6281987437105</v>
@@ -7515,25 +7515,25 @@
         <v>793.6343706203805</v>
       </c>
       <c r="S42" t="n">
-        <v>793.6343706203805</v>
+        <v>600.2267496365109</v>
       </c>
       <c r="T42" t="n">
-        <v>793.6343706203805</v>
+        <v>600.2267496365109</v>
       </c>
       <c r="U42" t="n">
-        <v>793.6343706203805</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="V42" t="n">
-        <v>550.5546525240146</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W42" t="n">
-        <v>281.1560832543059</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X42" t="n">
-        <v>61.6480888710023</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E43" t="n">
-        <v>126.0657498244643</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="L43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="M43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="O43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="P43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U43" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866077</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762336</v>
+        <v>710.4005212762343</v>
       </c>
       <c r="D44" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749024</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075004</v>
+        <v>479.9548866075008</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114352</v>
+        <v>315.6677119114356</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213828</v>
+        <v>135.5955616213832</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J44" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K44" t="n">
-        <v>28.17573240056725</v>
+        <v>424.2777650760513</v>
       </c>
       <c r="L44" t="n">
-        <v>314.8890863389092</v>
+        <v>521.5568487130884</v>
       </c>
       <c r="M44" t="n">
-        <v>635.9512023648094</v>
+        <v>842.6189647389886</v>
       </c>
       <c r="N44" t="n">
-        <v>951.5124968465086</v>
+        <v>920.0308619966879</v>
       </c>
       <c r="O44" t="n">
-        <v>1181.107235383051</v>
+        <v>956.2193626863674</v>
       </c>
       <c r="P44" t="n">
-        <v>1181.107235383051</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T44" t="n">
         <v>1408.786620028362</v>
@@ -7682,7 +7682,7 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W44" t="n">
         <v>1219.634089668691</v>
@@ -7691,7 +7691,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208747</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>263.3481000314009</v>
+        <v>344.5320086058812</v>
       </c>
       <c r="C45" t="n">
-        <v>263.3481000314009</v>
+        <v>155.1197343388449</v>
       </c>
       <c r="D45" t="n">
-        <v>263.3481000314009</v>
+        <v>155.1197343388449</v>
       </c>
       <c r="E45" t="n">
-        <v>263.3481000314009</v>
+        <v>155.1197343388449</v>
       </c>
       <c r="F45" t="n">
-        <v>263.3481000314009</v>
+        <v>155.1197343388449</v>
       </c>
       <c r="G45" t="n">
-        <v>263.3481000314009</v>
+        <v>155.1197343388449</v>
       </c>
       <c r="H45" t="n">
-        <v>136.4040980931232</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912143</v>
       </c>
       <c r="L45" t="n">
         <v>185.8379153908915</v>
       </c>
       <c r="M45" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312079</v>
       </c>
       <c r="N45" t="n">
         <v>575.6281987437105</v>
@@ -7752,25 +7752,25 @@
         <v>793.6343706203805</v>
       </c>
       <c r="S45" t="n">
-        <v>793.6343706203805</v>
+        <v>600.2267496365109</v>
       </c>
       <c r="T45" t="n">
-        <v>793.6343706203805</v>
+        <v>383.1101021955126</v>
       </c>
       <c r="U45" t="n">
-        <v>554.0104774690004</v>
+        <v>371.0407066973922</v>
       </c>
       <c r="V45" t="n">
-        <v>553.9155540099163</v>
+        <v>370.9457832383081</v>
       </c>
       <c r="W45" t="n">
-        <v>284.5169847402076</v>
+        <v>344.5320086058812</v>
       </c>
       <c r="X45" t="n">
-        <v>284.5169847402076</v>
+        <v>344.5320086058812</v>
       </c>
       <c r="Y45" t="n">
-        <v>284.5169847402076</v>
+        <v>344.5320086058812</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="C46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="D46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="E46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="F46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="G46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="J46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="K46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="L46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="M46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="O46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="P46" t="n">
-        <v>131.6213389844606</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.6213389844606</v>
+        <v>72.82716312146708</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6213389844606</v>
+        <v>109.8164644608446</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6213389844606</v>
+        <v>114.973499697056</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056725</v>
+        <v>46.62486877040701</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>129.6830587616843</v>
+        <v>219.3557975125987</v>
       </c>
       <c r="M12" t="n">
-        <v>215.6056533098496</v>
+        <v>116.6657468248318</v>
       </c>
       <c r="N12" t="n">
         <v>200.9373406025672</v>
       </c>
       <c r="O12" t="n">
-        <v>219.6296017271815</v>
+        <v>189.5306918970887</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9015,10 +9015,10 @@
         <v>185.5067434797568</v>
       </c>
       <c r="N15" t="n">
-        <v>101.9974341175494</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271815</v>
+        <v>120.6896952421637</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9246,16 +9246,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125987</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M18" t="n">
         <v>215.6056533098496</v>
       </c>
       <c r="N18" t="n">
-        <v>170.8384307724744</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O18" t="n">
-        <v>120.6896952421637</v>
+        <v>189.5306918970887</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>219.3557975125987</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M21" t="n">
-        <v>185.5067434797568</v>
+        <v>215.6056533098496</v>
       </c>
       <c r="N21" t="n">
-        <v>101.9974341175494</v>
+        <v>200.9373406025672</v>
       </c>
       <c r="O21" t="n">
         <v>219.6296017271815</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>176.2649642485865</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0073960199548</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>219.3557975125985</v>
+        <v>219.3557975125989</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098494</v>
+        <v>215.6056533098498</v>
       </c>
       <c r="N24" t="n">
-        <v>111.2646018516526</v>
+        <v>157.5736910591786</v>
       </c>
       <c r="O24" t="n">
-        <v>219.6296017271813</v>
+        <v>219.6296017271817</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.79147670753358</v>
+        <v>173.7313831925514</v>
       </c>
       <c r="C11" t="n">
         <v>149.8496401958969</v>
       </c>
       <c r="D11" t="n">
-        <v>38.47639597192753</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E11" t="n">
         <v>171.1230548763542</v>
@@ -23270,13 +23270,13 @@
         <v>202.8433924547315</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4705182927789</v>
+        <v>119.5306118077611</v>
       </c>
       <c r="H11" t="n">
-        <v>146.5447204342349</v>
+        <v>47.60481394921712</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562697</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>26.89230219312415</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.59815379547601</v>
+        <v>24.90494110797901</v>
       </c>
       <c r="V11" t="n">
         <v>120.5239264238701</v>
       </c>
       <c r="W11" t="n">
-        <v>137.5406066404849</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094242</v>
+        <v>60.4869506244064</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.98980374815014</v>
+        <v>181.929710233168</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.7313831925514</v>
+        <v>74.7914767075336</v>
       </c>
       <c r="C14" t="n">
         <v>149.8496401958969</v>
       </c>
       <c r="D14" t="n">
-        <v>40.47989876442981</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E14" t="n">
         <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8433924547315</v>
+        <v>137.7555035484826</v>
       </c>
       <c r="G14" t="n">
         <v>119.5306118077611</v>
       </c>
       <c r="H14" t="n">
-        <v>47.6048139492171</v>
+        <v>146.5447204342349</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.199089505627</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312415</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860077</v>
+        <v>49.79374050860079</v>
       </c>
       <c r="V14" t="n">
         <v>120.5239264238701</v>
       </c>
       <c r="W14" t="n">
-        <v>137.5406066404849</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X14" t="n">
         <v>159.4268571094242</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.9297102331679</v>
+        <v>82.98980374815017</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>463014.2974676412</v>
+      </c>
+      <c r="C2" t="n">
         <v>463014.2974676413</v>
       </c>
-      <c r="C2" t="n">
-        <v>463014.2974676414</v>
-      </c>
       <c r="D2" t="n">
-        <v>463014.2974676413</v>
+        <v>463014.2974676412</v>
       </c>
       <c r="E2" t="n">
-        <v>398994.7967357519</v>
+        <v>398994.7967357515</v>
       </c>
       <c r="F2" t="n">
-        <v>398994.7967357516</v>
+        <v>398994.7967357517</v>
       </c>
       <c r="G2" t="n">
-        <v>463952.2381507314</v>
+        <v>463952.2381507315</v>
       </c>
       <c r="H2" t="n">
         <v>463952.2381507314</v>
       </c>
       <c r="I2" t="n">
-        <v>463952.2381507315</v>
+        <v>463952.2381507314</v>
       </c>
       <c r="J2" t="n">
-        <v>463952.2381507311</v>
+        <v>463952.2381507313</v>
       </c>
       <c r="K2" t="n">
-        <v>463952.238150731</v>
+        <v>463952.2381507309</v>
       </c>
       <c r="L2" t="n">
         <v>463952.2381507311</v>
       </c>
       <c r="M2" t="n">
+        <v>463952.2381507314</v>
+      </c>
+      <c r="N2" t="n">
         <v>463952.2381507313</v>
-      </c>
-      <c r="N2" t="n">
-        <v>463952.2381507314</v>
       </c>
       <c r="O2" t="n">
         <v>463952.2381507314</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.0445868051</v>
+        <v>273465.044586805</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158845.8973352051</v>
+        <v>158845.8973352049</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103592.815743961</v>
+        <v>103592.8157439611</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623635</v>
+        <v>22155.3858762363</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252975</v>
+        <v>66695.75573252983</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,19 +26442,19 @@
         <v>436469.4452056575</v>
       </c>
       <c r="K4" t="n">
-        <v>436469.4452056575</v>
+        <v>436469.4452056574</v>
       </c>
       <c r="L4" t="n">
-        <v>436469.4452056574</v>
+        <v>436469.4452056573</v>
       </c>
       <c r="M4" t="n">
-        <v>436027.6049897706</v>
+        <v>436027.6049897707</v>
       </c>
       <c r="N4" t="n">
         <v>436027.6049897707</v>
       </c>
       <c r="O4" t="n">
-        <v>436027.6049897707</v>
+        <v>436027.6049897706</v>
       </c>
       <c r="P4" t="n">
         <v>436027.6049897706</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439978</v>
+        <v>25128.77385439977</v>
       </c>
       <c r="F5" t="n">
-        <v>25128.77385439978</v>
+        <v>25128.77385439977</v>
       </c>
       <c r="G5" t="n">
         <v>36014.95438787361</v>
       </c>
       <c r="H5" t="n">
+        <v>36014.9543878736</v>
+      </c>
+      <c r="I5" t="n">
         <v>36014.95438787361</v>
       </c>
-      <c r="I5" t="n">
-        <v>36014.95438787359</v>
-      </c>
       <c r="J5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.6013154428</v>
+        <v>47593.60131544279</v>
       </c>
       <c r="L5" t="n">
         <v>47593.60131544279</v>
@@ -26503,7 +26503,7 @@
         <v>43906.28142019035</v>
       </c>
       <c r="N5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="O5" t="n">
         <v>43906.28142019035</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43155.46294901406</v>
+        <v>-43159.9293332193</v>
       </c>
       <c r="C6" t="n">
-        <v>-43155.46294901394</v>
+        <v>-43159.92933321925</v>
       </c>
       <c r="D6" t="n">
-        <v>-43155.46294901406</v>
+        <v>-43159.9293332193</v>
       </c>
       <c r="E6" t="n">
-        <v>-266198.9133620448</v>
+        <v>-266508.2345116403</v>
       </c>
       <c r="F6" t="n">
-        <v>7266.131224759993</v>
+        <v>6956.810075164971</v>
       </c>
       <c r="G6" t="n">
-        <v>-112773.9901509116</v>
+        <v>-112773.9901509115</v>
       </c>
       <c r="H6" t="n">
-        <v>-9181.174406950442</v>
+        <v>-9181.174406950318</v>
       </c>
       <c r="I6" t="n">
-        <v>-9181.174406950369</v>
+        <v>-9181.174406950508</v>
       </c>
       <c r="J6" t="n">
-        <v>-178956.7057055742</v>
+        <v>-178956.7057055739</v>
       </c>
       <c r="K6" t="n">
-        <v>-20110.80837036929</v>
+        <v>-20110.80837036928</v>
       </c>
       <c r="L6" t="n">
         <v>-123703.6241143301</v>
       </c>
       <c r="M6" t="n">
-        <v>-38137.03413546603</v>
+        <v>-38137.03413546597</v>
       </c>
       <c r="N6" t="n">
+        <v>-15981.64825922978</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-82677.40399175946</v>
+      </c>
+      <c r="P6" t="n">
         <v>-15981.64825922967</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-82677.40399175941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-15981.64825922961</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G2" t="n">
         <v>329.8468768652333</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I2" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L2" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="M2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N2" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="O2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="3">
@@ -26768,16 +26768,16 @@
         <v>104.1060083670286</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670285</v>
       </c>
       <c r="N3" t="n">
         <v>104.1060083670286</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670286</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>98.93990648501779</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501762</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="M4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="N4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566222</v>
+        <v>83.36969466566228</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529543</v>
+        <v>27.69423234529538</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566219</v>
+        <v>83.36969466566228</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070908</v>
+        <v>352.1966550070903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799513</v>
+        <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566222</v>
+        <v>83.36969466566228</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="E11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="H11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="I11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="J11" t="n">
-        <v>114.8344846805798</v>
+        <v>174.7202286920869</v>
       </c>
       <c r="K11" t="n">
-        <v>104.1664143511967</v>
+        <v>50.4960558838365</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R11" t="n">
-        <v>200.355857185282</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>100.5807660629996</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>59.88353263491055</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7382922638873</v>
@@ -28190,7 +28190,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J12" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3278900205298</v>
@@ -28220,22 +28220,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T12" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U12" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V12" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W12" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X12" t="n">
-        <v>200.355857185282</v>
+        <v>148.3325553801483</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.355857185282</v>
+        <v>124.4443796490078</v>
       </c>
     </row>
     <row r="13">
@@ -28245,19 +28245,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G13" t="n">
         <v>168.6954829817093</v>
@@ -28266,7 +28266,7 @@
         <v>165.7773474488177</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6938248359117</v>
+        <v>188.3083691984172</v>
       </c>
       <c r="J13" t="n">
         <v>119.8654670400798</v>
@@ -28278,43 +28278,43 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M13" t="n">
-        <v>123.3272353814035</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N13" t="n">
-        <v>114.6502518757157</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O13" t="n">
         <v>36.73089156368813</v>
       </c>
       <c r="P13" t="n">
-        <v>156.7784686382178</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.3312561805067</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="R13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="E14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="H14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="I14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="J14" t="n">
         <v>75.78032220706916</v>
       </c>
       <c r="K14" t="n">
-        <v>5.226507866178949</v>
+        <v>104.1664143511967</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>58.66502733818002</v>
+        <v>52.44964179403309</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.3776479086703</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R14" t="n">
-        <v>194.140471641135</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J15" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.38798353551201</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S15" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T15" t="n">
-        <v>119.4821794342016</v>
+        <v>180.9237354734364</v>
       </c>
       <c r="U15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W15" t="n">
-        <v>200.355857185282</v>
+        <v>167.7646770919938</v>
       </c>
       <c r="X15" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>124.4443796490078</v>
       </c>
     </row>
     <row r="16">
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28497,61 +28497,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>200.355857185282</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H16" t="n">
-        <v>200.355857185282</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I16" t="n">
-        <v>200.355857185282</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J16" t="n">
-        <v>200.355857185282</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K16" t="n">
-        <v>114.1999938364156</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L16" t="n">
         <v>31.36504828657057</v>
       </c>
       <c r="M16" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814035</v>
       </c>
       <c r="N16" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O16" t="n">
-        <v>36.73089156368813</v>
+        <v>135.6707980487059</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7784686382178</v>
+        <v>155.1761274300095</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.355857185282</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="17">
@@ -28609,19 +28609,19 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R17" t="n">
-        <v>194.140471641135</v>
+        <v>239.4100196587926</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2481593784061</v>
+        <v>326.1880658634238</v>
       </c>
       <c r="T17" t="n">
-        <v>321.3541443960544</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
-        <v>286.452052455459</v>
+        <v>250.1495976938827</v>
       </c>
       <c r="V17" t="n">
-        <v>329.8468768652333</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>329.8468768652333</v>
@@ -28652,16 +28652,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>59.88353263491055</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7382922638873</v>
+        <v>49.79838577886949</v>
       </c>
       <c r="H18" t="n">
         <v>125.6745619188949</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1460820356304</v>
+        <v>8.206175550612627</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.38798353551201</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S18" t="n">
-        <v>92.53363828901308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T18" t="n">
-        <v>116.0055744815706</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276542198663</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>188.1091574124432</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>194.1805291069982</v>
       </c>
     </row>
     <row r="19">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="C20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="E20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="F20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="G20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I20" t="n">
         <v>240.5549466909089</v>
@@ -28846,28 +28846,28 @@
         <v>88.43774142365251</v>
       </c>
       <c r="R20" t="n">
-        <v>194.140471641135</v>
+        <v>249.6855537163787</v>
       </c>
       <c r="S20" t="n">
-        <v>326.1880658634238</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T20" t="n">
-        <v>258.7166926726129</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495976938827</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="W20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="X20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>77.81058791264795</v>
       </c>
       <c r="C21" t="n">
-        <v>88.57824503934813</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>129.9685580495511</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28898,7 +28898,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1460820356304</v>
+        <v>8.206175550612627</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551201</v>
       </c>
       <c r="S21" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9454809665884</v>
+        <v>185.7417239395609</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276542198663</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>118.3730079544528</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>124.4443796490078</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="C23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="D23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="E23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="F23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="G23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="I23" t="n">
-        <v>329.8468768652333</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
-        <v>130.6978465354195</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K23" t="n">
         <v>5.226507866178949</v>
@@ -29089,22 +29089,22 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4142379110366</v>
+        <v>286.9264132423624</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495976938827</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="X23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.8468768652333</v>
+        <v>329.8468768652332</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.81058791264812</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>152.2506867870527</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,13 +29126,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>59.88353263491032</v>
       </c>
       <c r="G24" t="n">
         <v>148.7382922638873</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6745619188949</v>
+        <v>96.47080489186725</v>
       </c>
       <c r="I24" t="n">
         <v>107.1460820356304</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.38798353551216</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S24" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T24" t="n">
-        <v>116.0055744815707</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>141.7090144303842</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490076</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456131</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29369,7 +29369,7 @@
         <v>148.7382922638873</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6745619188949</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.1460820356304</v>
@@ -29402,25 +29402,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456136</v>
+        <v>54.0877624995361</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X27" t="n">
-        <v>72.86246528085437</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="28">
@@ -29436,16 +29436,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>180.6570043002235</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6954829817093</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H28" t="n">
         <v>165.7773474488177</v>
@@ -29463,7 +29463,7 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M28" t="n">
-        <v>212.8607143456136</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N28" t="n">
         <v>15.71034539069795</v>
@@ -29472,34 +29472,34 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P28" t="n">
-        <v>106.2761919006714</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7738576957197</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R28" t="n">
         <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456128</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M29" t="n">
-        <v>212.860714345613</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,10 +29597,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7382922638873</v>
@@ -29609,7 +29609,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>51.87880489469028</v>
@@ -29639,25 +29639,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8607143456136</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456136</v>
+        <v>89.59655784195678</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y30" t="n">
-        <v>85.51772204407564</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="31">
@@ -29667,19 +29667,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>145.6592348320277</v>
       </c>
       <c r="G31" t="n">
         <v>168.6954829817093</v>
@@ -29688,7 +29688,7 @@
         <v>165.7773474488177</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8607143456136</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J31" t="n">
         <v>119.8654670400798</v>
@@ -29703,10 +29703,10 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N31" t="n">
-        <v>18.65594999522947</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8607143456136</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P31" t="n">
         <v>57.83856215320002</v>
@@ -29715,28 +29715,28 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.860714345613</v>
       </c>
       <c r="N32" t="n">
         <v>212.8607143456135</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>42.59697990174101</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7382922638873</v>
@@ -29882,10 +29882,10 @@
         <v>212.8607143456135</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8607143456135</v>
+        <v>3.837645377909126</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>212.8607143456135</v>
@@ -29894,7 +29894,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,28 +29907,28 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>212.8607143456135</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8607143456135</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>150.335552994851</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6954829817093</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7773474488177</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I34" t="n">
-        <v>164.6938248359117</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J34" t="n">
-        <v>156.6080281183417</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K34" t="n">
         <v>66.41515229588839</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J35" t="n">
-        <v>75.78032220706916</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="M35" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>49.20719891181383</v>
       </c>
       <c r="P35" t="n">
-        <v>125.5440819720011</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.43774142365251</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>155.7479408967763</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7382922638873</v>
@@ -30086,7 +30086,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.8788048946903</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3278900205298</v>
@@ -30122,16 +30122,16 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>238.2147884192525</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,13 +30144,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>240.5549466909089</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>175.5753962326765</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30165,25 +30165,25 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8654670400798</v>
+        <v>125.4771732622981</v>
       </c>
       <c r="K37" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588842</v>
       </c>
       <c r="L37" t="n">
-        <v>31.36504828657057</v>
+        <v>31.3650482865706</v>
       </c>
       <c r="M37" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638571</v>
       </c>
       <c r="N37" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069799</v>
       </c>
       <c r="O37" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368816</v>
       </c>
       <c r="P37" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215320004</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7738576957197</v>
@@ -30198,13 +30198,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W37" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30247,19 +30247,19 @@
         <v>240.554946690909</v>
       </c>
       <c r="K38" t="n">
+        <v>49.20719891181326</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>240.554946690909</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>240.554946690909</v>
-      </c>
-      <c r="M38" t="n">
-        <v>49.20719891181375</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>240.554946690909</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>122.5315312313191</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.4735447740309</v>
@@ -30356,13 +30356,13 @@
         <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276542198663</v>
+        <v>211.2010611640139</v>
       </c>
       <c r="V39" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="W39" t="n">
-        <v>240.554946690909</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30381,7 +30381,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30420,7 +30420,7 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P40" t="n">
-        <v>162.3290738541023</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7738576957197</v>
@@ -30432,7 +30432,7 @@
         <v>235.3458201896853</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7389474107024</v>
+        <v>235.4962021100016</v>
       </c>
       <c r="U40" t="n">
         <v>240.554946690909</v>
@@ -30444,7 +30444,7 @@
         <v>240.554946690909</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>49.20719891181376</v>
+        <v>49.20719891181322</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="42">
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285847</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R42" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276542198663</v>
+        <v>178.2506516486959</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.2466532282949</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30624,10 +30624,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5549466909089</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>144.5385884406651</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6954829817093</v>
@@ -30642,25 +30642,25 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K43" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L43" t="n">
-        <v>31.36504828657055</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M43" t="n">
-        <v>24.38732889638566</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N43" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O43" t="n">
-        <v>36.73089156368812</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P43" t="n">
-        <v>57.8385621532</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7738576957197</v>
+        <v>231.2643693966219</v>
       </c>
       <c r="R43" t="n">
         <v>203.1920160450731</v>
@@ -30672,13 +30672,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J44" t="n">
-        <v>75.78032220706916</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K44" t="n">
-        <v>5.226507866178927</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5549466909089</v>
+        <v>49.20719891181311</v>
       </c>
       <c r="M44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N44" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>195.3598362089521</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.39547932052245</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="45">
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.7932985359471</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
         <v>51.87880489469028</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285847</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R45" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740308</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.2789526767271</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30876,49 +30876,49 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J46" t="n">
-        <v>224.3559787409822</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657055</v>
+        <v>31.36504828657057</v>
       </c>
       <c r="M46" t="n">
-        <v>24.38732889638566</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368812</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P46" t="n">
-        <v>57.8385621532</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7738576957197</v>
+        <v>153.2408216866894</v>
       </c>
       <c r="R46" t="n">
-        <v>203.1920160450731</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3458201896853</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7389474107024</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508679</v>
       </c>
       <c r="H35" t="n">
-        <v>4.286133299251583</v>
+        <v>4.286133299251577</v>
       </c>
       <c r="I35" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957735</v>
       </c>
       <c r="J35" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398425</v>
       </c>
       <c r="K35" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258251</v>
       </c>
       <c r="L35" t="n">
-        <v>66.04506096635123</v>
+        <v>66.04506096635114</v>
       </c>
       <c r="M35" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593763</v>
       </c>
       <c r="N35" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271279</v>
       </c>
       <c r="O35" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688509</v>
       </c>
       <c r="P35" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578553</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.19508627555763</v>
+        <v>45.19508627555756</v>
       </c>
       <c r="R35" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441348</v>
       </c>
       <c r="S35" t="n">
-        <v>9.536947399652924</v>
+        <v>9.536947399652911</v>
       </c>
       <c r="T35" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951425</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406942</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045518</v>
       </c>
       <c r="H36" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001856</v>
       </c>
       <c r="I36" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086543</v>
       </c>
       <c r="J36" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805812</v>
       </c>
       <c r="K36" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876309</v>
       </c>
       <c r="L36" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386552</v>
       </c>
       <c r="M36" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003051</v>
       </c>
       <c r="N36" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411718</v>
       </c>
       <c r="O36" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005843</v>
       </c>
       <c r="P36" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852534</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183016</v>
       </c>
       <c r="R36" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777034</v>
       </c>
       <c r="S36" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909106</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990484</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608894</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356251</v>
       </c>
       <c r="H37" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622195</v>
       </c>
       <c r="I37" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067709</v>
       </c>
       <c r="J37" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885869</v>
       </c>
       <c r="K37" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082989</v>
       </c>
       <c r="L37" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761285</v>
       </c>
       <c r="M37" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037166</v>
       </c>
       <c r="N37" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167527</v>
       </c>
       <c r="O37" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246818</v>
       </c>
       <c r="P37" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926141</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.72000726342132</v>
+        <v>15.7200072634213</v>
       </c>
       <c r="R37" t="n">
-        <v>8.441119957103661</v>
+        <v>8.44111995710365</v>
       </c>
       <c r="S37" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124483</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885797</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H41" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I41" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J41" t="n">
-        <v>35.52107468398432</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K41" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L41" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M41" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N41" t="n">
-        <v>74.67696618271293</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O41" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P41" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R41" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S41" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T41" t="n">
         <v>1.832056488951428</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H42" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I42" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J42" t="n">
         <v>21.15610873805815</v>
       </c>
       <c r="K42" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L42" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N42" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O42" t="n">
-        <v>53.27772298005852</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P42" t="n">
-        <v>42.76006973852542</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.58397422183021</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R42" t="n">
         <v>13.90306277777036</v>
       </c>
       <c r="S42" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H43" t="n">
-        <v>1.669109445622198</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I43" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J43" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K43" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L43" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M43" t="n">
-        <v>29.42786725037172</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N43" t="n">
-        <v>28.72813834167532</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O43" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P43" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.72000726342133</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R43" t="n">
-        <v>8.441119957103664</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S43" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U43" t="n">
         <v>0.01023993524921594</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.4185166165508685</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251583</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957737</v>
       </c>
       <c r="J44" t="n">
-        <v>35.52107468398432</v>
+        <v>35.5210746839843</v>
       </c>
       <c r="K44" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258258</v>
       </c>
       <c r="L44" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635123</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593773</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271293</v>
+        <v>74.6769661827129</v>
       </c>
       <c r="O44" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688519</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578562</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555763</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441351</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652924</v>
       </c>
       <c r="T44" t="n">
         <v>1.832056488951428</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406947</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045521</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001859</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086554</v>
       </c>
       <c r="J45" t="n">
         <v>21.15610873805815</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876314</v>
       </c>
       <c r="L45" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386558</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003059</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411726</v>
       </c>
       <c r="O45" t="n">
-        <v>53.27772298005852</v>
+        <v>53.2777229800585</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852542</v>
+        <v>42.7600697385254</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.58397422183021</v>
+        <v>28.5839742218302</v>
       </c>
       <c r="R45" t="n">
         <v>13.90306277777036</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909112</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608896</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356253</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622198</v>
+        <v>1.669109445622197</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067716</v>
       </c>
       <c r="J46" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885871</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082992</v>
       </c>
       <c r="L46" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761288</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037172</v>
+        <v>29.4278672503717</v>
       </c>
       <c r="N46" t="n">
-        <v>28.72813834167532</v>
+        <v>28.7281383416753</v>
       </c>
       <c r="O46" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246822</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926144</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342133</v>
+        <v>15.72000726342132</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103664</v>
+        <v>8.441119957103661</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124488</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885808</v>
       </c>
       <c r="U46" t="n">
         <v>0.01023993524921594</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.05416247351065</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="K11" t="n">
-        <v>98.93990648501779</v>
+        <v>45.26954801765756</v>
       </c>
       <c r="L11" t="n">
         <v>49.05450173165866</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146923</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L12" t="n">
-        <v>9.267167734103381</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="M12" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>98.93990648501779</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501779</v>
+        <v>68.84099665492502</v>
       </c>
       <c r="P12" t="n">
         <v>85.67516677172179</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.73893652031387</v>
+        <v>22.73893652031384</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.89867621330959</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.17320693457123</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.67971597305694</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.42897496683528</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,7 +35562,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.61454436250546</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.557398484787026</v>
+        <v>73.58199948956228</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="L14" t="n">
         <v>49.05450173165866</v>
@@ -35662,13 +35662,13 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P14" t="n">
-        <v>45.26954801765754</v>
+        <v>39.05416247351062</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.215385544146894</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>68.84099665492502</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="O15" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>85.67516677172179</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.89867621330959</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35793,34 +35793,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.66037420357262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.57850973646428</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.66203234937026</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.49039014520216</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>47.78484154052719</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="P16" t="n">
-        <v>98.93990648501779</v>
+        <v>97.33756527680946</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>45.26954801765754</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="T17" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>36.30245476157623</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.967093256081284</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>98.93990648501779</v>
       </c>
       <c r="N18" t="n">
+        <v>98.93990648501779</v>
+      </c>
+      <c r="O18" t="n">
         <v>68.84099665492502</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>85.67516677172179</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>55.54508207524367</v>
       </c>
       <c r="S20" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>36.30245476157623</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>79.69727917135046</v>
       </c>
       <c r="V20" t="n">
-        <v>8.967093256081284</v>
+        <v>8.967093256081171</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>98.93990648501779</v>
       </c>
-      <c r="M21" t="n">
-        <v>68.84099665492502</v>
-      </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>98.93990648501779</v>
       </c>
       <c r="O21" t="n">
         <v>98.93990648501779</v>
       </c>
       <c r="P21" t="n">
-        <v>85.67516677172179</v>
+        <v>55.57625694162903</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>89.29193017432436</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.91752432835032</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>64.51217533132576</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>79.69727917135046</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L24" t="n">
-        <v>98.93990648501762</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501762</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="N24" t="n">
-        <v>9.267167734103227</v>
+        <v>55.57625694162923</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501762</v>
+        <v>98.93990648501801</v>
       </c>
       <c r="P24" t="n">
-        <v>85.67516677172179</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0803921385439</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K26" t="n">
         <v>207.6342064794346</v>
@@ -36616,7 +36616,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447852</v>
+        <v>18.72024270447849</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,16 +36732,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.47435404951282</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.18457313338854</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.16523136390419</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.4733854492279</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>48.4376297474714</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.08685664989387</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>137.0803921385444</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6342064794346</v>
+        <v>207.6342064794338</v>
       </c>
       <c r="L29" t="n">
         <v>261.9152160772722</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6109353576335</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
         <v>291.0545499594513</v>
@@ -36853,7 +36853,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447852</v>
+        <v>18.72024270447849</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.24379368064544</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.40353337364118</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.67806409490282</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.18457313338854</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.73235261358103</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.16688950970186</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.945604604531515</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1298227819254</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.66869830054045</v>
+        <v>9.668698300540422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6342064794346</v>
+        <v>207.6342064794345</v>
       </c>
       <c r="L32" t="n">
         <v>261.9152160772721</v>
       </c>
       <c r="M32" t="n">
-        <v>296.610935357634</v>
+        <v>296.6109353576335</v>
       </c>
       <c r="N32" t="n">
         <v>291.0545499594512</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4147554462999</v>
+        <v>249.4147554462998</v>
       </c>
       <c r="P32" t="n">
         <v>199.465235025091</v>
@@ -37090,7 +37090,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447847</v>
+        <v>18.72024270447843</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,28 +37203,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.40353337364115</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.67806409490279</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>11.40867077640431</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.16523136390413</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.08336689679579</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.16688950970178</v>
       </c>
       <c r="J34" t="n">
-        <v>36.7425610782619</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.08685664989385</v>
+        <v>86.08685664989382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K35" t="n">
-        <v>235.32843882473</v>
+        <v>235.3284388247299</v>
       </c>
       <c r="L35" t="n">
-        <v>289.6094484225676</v>
+        <v>289.6094484225675</v>
       </c>
       <c r="M35" t="n">
-        <v>324.3051677029295</v>
+        <v>83.75022101202039</v>
       </c>
       <c r="N35" t="n">
-        <v>318.7487823047467</v>
+        <v>78.19383561383759</v>
       </c>
       <c r="O35" t="n">
-        <v>36.55404110068636</v>
+        <v>85.7612400125001</v>
       </c>
       <c r="P35" t="n">
-        <v>112.1486026514786</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>152.1172052672564</v>
       </c>
       <c r="R35" t="n">
-        <v>46.4144750497739</v>
+        <v>46.41447504977388</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250286</v>
+        <v>13.30678731250287</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.36607756419615</v>
+        <v>39.3660775641961</v>
       </c>
       <c r="L36" t="n">
         <v>119.8886527290606</v>
       </c>
       <c r="M36" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851681</v>
       </c>
       <c r="N36" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570732</v>
       </c>
       <c r="O36" t="n">
         <v>134.533087649157</v>
       </c>
       <c r="P36" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172173</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37440,13 +37440,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>74.09776571893659</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.39274598196577</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>98.87880547868397</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.611706222218301</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>164.7746244838398</v>
       </c>
       <c r="K38" t="n">
-        <v>235.32843882473</v>
+        <v>43.98069104563432</v>
       </c>
       <c r="L38" t="n">
-        <v>289.6094484225677</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M38" t="n">
-        <v>132.9574199238342</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N38" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O38" t="n">
-        <v>36.55404110068636</v>
+        <v>277.1089877915953</v>
       </c>
       <c r="P38" t="n">
         <v>227.1594673703865</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>74.09776571893661</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>104.4905117009023</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>11.75725469929923</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>18.63549128266644</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>235.32843882473</v>
       </c>
       <c r="L41" t="n">
-        <v>49.05450173165869</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M41" t="n">
-        <v>83.75022101202052</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N41" t="n">
-        <v>127.4010345256515</v>
+        <v>127.4010345256509</v>
       </c>
       <c r="O41" t="n">
         <v>277.1089877915953</v>
@@ -37801,13 +37801,13 @@
         <v>152.1172052672565</v>
       </c>
       <c r="R41" t="n">
-        <v>46.41447504977391</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250286</v>
+        <v>13.30678731250288</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.36607756419616</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L42" t="n">
         <v>119.8886527290606</v>
@@ -37871,10 +37871,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P42" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.87880547868394</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.611706222218415</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.7746244838398</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>235.32843882473</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225677</v>
+        <v>98.26170064347177</v>
       </c>
       <c r="M44" t="n">
         <v>324.3051677029295</v>
       </c>
       <c r="N44" t="n">
-        <v>318.7487823047467</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O44" t="n">
-        <v>231.9138773096385</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>227.1594673703865</v>
       </c>
       <c r="Q44" t="n">
         <v>152.1172052672565</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977391</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250286</v>
+        <v>13.30678731250288</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419616</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L45" t="n">
         <v>119.8886527290606</v>
@@ -38108,10 +38108,10 @@
         <v>208.6164244570733</v>
       </c>
       <c r="O45" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172179</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>26.46696399096977</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.36293064583585</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.20912650122364</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.81599928020659</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.63549128266644</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
